--- a/simulations/filter-irl-messung.xlsx
+++ b/simulations/filter-irl-messung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\source\MTAP-MIDI-Guitar-Converter\simulations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5836f00b72e17776/Desktop/MTAP/MTAP-MIDI-Guitar-Converter/simulations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E7FB393-ACBF-4AB3-A5A1-DBCA5EFF9727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{4E7FB393-ACBF-4AB3-A5A1-DBCA5EFF9727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA05EA17-9DF1-4BBB-A436-0999C6236EB2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -117,6 +117,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>Ua zu Ue</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -454,7 +479,6 @@
       <c:valAx>
         <c:axId val="1397613727"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1459,16 +1483,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21:O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1482,7 +1506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>207</v>
       </c>
@@ -1497,7 +1521,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>260</v>
       </c>
@@ -1509,7 +1533,7 @@
         <v>2.896551724137931</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>370</v>
       </c>
@@ -1521,7 +1545,7 @@
         <v>2.931034482758621</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>440</v>
       </c>
@@ -1533,7 +1557,7 @@
         <v>2.9655172413793105</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>493</v>
       </c>
@@ -1545,7 +1569,7 @@
         <v>3.0344827586206899</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>554</v>
       </c>
@@ -1557,7 +1581,7 @@
         <v>3.0689655172413794</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>586</v>
       </c>
@@ -1569,7 +1593,7 @@
         <v>3.1034482758620694</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>696</v>
       </c>
@@ -1581,7 +1605,7 @@
         <v>3.1379310344827589</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>784</v>
       </c>
@@ -1593,7 +1617,7 @@
         <v>3.1379310344827589</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1047</v>
       </c>
@@ -1605,7 +1629,7 @@
         <v>2.931034482758621</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1111</v>
       </c>
@@ -1617,7 +1641,7 @@
         <v>2.8103448275862069</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1175</v>
       </c>
@@ -1629,7 +1653,7 @@
         <v>2.6896551724137936</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1245</v>
       </c>
@@ -1641,7 +1665,7 @@
         <v>2.5172413793103448</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1328</v>
       </c>
@@ -1653,7 +1677,7 @@
         <v>2.3793103448275863</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1396</v>
       </c>
@@ -1665,7 +1689,7 @@
         <v>2.1724137931034484</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1485</v>
       </c>
@@ -1677,7 +1701,7 @@
         <v>1.9655172413793103</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1567</v>
       </c>
@@ -1689,7 +1713,7 @@
         <v>1.7931034482758623</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1661</v>
       </c>
@@ -1701,7 +1725,7 @@
         <v>1.6206896551724139</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1754</v>
       </c>
@@ -1713,7 +1737,7 @@
         <v>1.5344827586206897</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1865</v>
       </c>
@@ -1725,7 +1749,7 @@
         <v>1.2758620689655173</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1980</v>
       </c>
@@ -1737,7 +1761,7 @@
         <v>1.1724137931034484</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2100</v>
       </c>
@@ -1749,7 +1773,7 @@
         <v>1.0344827586206897</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2230</v>
       </c>
@@ -1761,7 +1785,7 @@
         <v>0.93103448275862077</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2341</v>
       </c>
@@ -1773,7 +1797,7 @@
         <v>0.79310344827586221</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2500</v>
       </c>
@@ -1785,7 +1809,7 @@
         <v>0.75862068965517249</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2624</v>
       </c>
@@ -1797,7 +1821,7 @@
         <v>0.62068965517241381</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2793</v>
       </c>
@@ -1809,7 +1833,7 @@
         <v>0.55172413793103459</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2997</v>
       </c>
@@ -1821,7 +1845,7 @@
         <v>0.46551724137931039</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3140</v>
       </c>

--- a/simulations/filter-irl-messung.xlsx
+++ b/simulations/filter-irl-messung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5836f00b72e17776/Desktop/MTAP/MTAP-MIDI-Guitar-Converter/simulations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{4E7FB393-ACBF-4AB3-A5A1-DBCA5EFF9727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA05EA17-9DF1-4BBB-A436-0999C6236EB2}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{4E7FB393-ACBF-4AB3-A5A1-DBCA5EFF9727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06D25467-D1A0-495F-AFE2-4234A3A713A4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1153,13 +1153,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>17145</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>655320</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>17145</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1487,7 +1487,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21:O22"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
